--- a/Logboek PyramidPanic.xlsx
+++ b/Logboek PyramidPanic.xlsx
@@ -1,25 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Weeknr 48" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+  <si>
+    <t>Logboek</t>
+  </si>
+  <si>
+    <t>Naam:</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t>Klas:</t>
+  </si>
+  <si>
+    <t>Pyramid Panic</t>
+  </si>
+  <si>
+    <t>Mitchell 't Lam</t>
+  </si>
+  <si>
+    <t>AM1A</t>
+  </si>
+  <si>
+    <t>dag</t>
+  </si>
+  <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>begintijd</t>
+  </si>
+  <si>
+    <t>eindtijd</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>activiteit</t>
+  </si>
+  <si>
+    <t>totaal</t>
+  </si>
+  <si>
+    <t>vrijdag</t>
+  </si>
+  <si>
+    <t>Nieuwe repo (lokaal) gemaakt, Nieuw project gemaakt, Nieuwe repo gemaakt op github</t>
+  </si>
+  <si>
+    <t>Project, logboek, assets, pyramid8.exe op github gezet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weeknr: </t>
+  </si>
+  <si>
+    <t>Aantal uren:</t>
+  </si>
+  <si>
+    <t>totaal:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,21 +137,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +203,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,37 +448,318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41596</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SUM(D7-C7)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G21" si="0">SUM(D8-C8)</f>
+        <v>5.2777777777777812E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2">
+        <f>SUM(G7:G21)</f>
+        <v>0.11527777777777781</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>48</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.11527777777777777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2">
+        <f>SUM(B7)</f>
+        <v>0.11527777777777777</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Logboek PyramidPanic.xlsx
+++ b/Logboek PyramidPanic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Logboek</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>totaal:</t>
+  </si>
+  <si>
+    <t>Naam class1 veranderd naar PyramidPanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De hoogte en breedte aangepast van het canvas </t>
+  </si>
+  <si>
+    <t>Icoontje veranderd</t>
+  </si>
+  <si>
+    <t>Gezorgt dat je het spel kan stoppen door escape in te drukken</t>
   </si>
 </sst>
 </file>
@@ -82,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -139,7 +151,7 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -452,7 +464,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,39 +572,75 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.50069444444444444</v>
+      </c>
       <c r="E9">
         <v>3</v>
       </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.51111111111111118</v>
+      </c>
       <c r="E10">
         <v>4</v>
       </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.7222222222222987E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>0.51180555555555551</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.52013888888888882</v>
+      </c>
       <c r="E11">
         <v>5</v>
       </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333037E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.53125</v>
+      </c>
       <c r="E12">
         <v>6</v>
       </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -682,7 +730,7 @@
       </c>
       <c r="G22" s="2">
         <f>SUM(G7:G21)</f>
-        <v>0.11527777777777781</v>
+        <v>0.15416666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -696,7 +744,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +795,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="7">
-        <v>0.11527777777777777</v>
+        <v>0.15416666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +804,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B7)</f>
-        <v>0.11527777777777777</v>
+        <v>0.15416666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek PyramidPanic.xlsx
+++ b/Logboek PyramidPanic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Logboek</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Gezorgt dat je het spel kan stoppen door escape in te drukken</t>
+  </si>
+  <si>
+    <t>De GameScene mappen aangemaakt. HelpScene, StartScene, GameOverScene, PlayScene.</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,12 +647,21 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.58680555555555558</v>
+      </c>
       <c r="E13">
         <v>7</v>
       </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.430555555555558E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,7 +742,7 @@
       </c>
       <c r="G22" s="2">
         <f>SUM(G7:G21)</f>
-        <v>0.15416666666666667</v>
+        <v>0.17847222222222225</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +807,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="7">
-        <v>0.15416666666666667</v>
+        <v>0.17847222222222223</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -804,7 +816,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B7)</f>
-        <v>0.15416666666666667</v>
+        <v>0.17847222222222223</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek PyramidPanic.xlsx
+++ b/Logboek PyramidPanic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Weeknr 48" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Logboek</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>De GameScene mappen aangemaakt. HelpScene, StartScene, GameOverScene, PlayScene.</t>
+  </si>
+  <si>
+    <t>Commit gemaakt</t>
+  </si>
+  <si>
+    <t>GitHub bijgewerkt</t>
+  </si>
+  <si>
+    <t>Logboek bijgewerkt</t>
   </si>
 </sst>
 </file>
@@ -466,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,30 +674,57 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.60763888888888895</v>
+      </c>
       <c r="E14">
         <v>8</v>
       </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222223209E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.61111111111111105</v>
+      </c>
       <c r="E15">
         <v>9</v>
       </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777679E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="E16">
         <v>10</v>
       </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222223209E-3</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
@@ -742,7 +778,7 @@
       </c>
       <c r="G22" s="2">
         <f>SUM(G7:G21)</f>
-        <v>0.17847222222222225</v>
+        <v>0.18819444444444466</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -807,7 +843,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="7">
-        <v>0.17847222222222223</v>
+        <v>0.18819444444444444</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,7 +852,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B7)</f>
-        <v>0.17847222222222223</v>
+        <v>0.18819444444444444</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek PyramidPanic.xlsx
+++ b/Logboek PyramidPanic.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Weeknr 48" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="Weeknr 49" sheetId="3" r:id="rId2"/>
+    <sheet name="Totaal uren" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Logboek</t>
   </si>
@@ -99,6 +100,57 @@
   </si>
   <si>
     <t>Logboek bijgewerkt</t>
+  </si>
+  <si>
+    <t>Maandag</t>
+  </si>
+  <si>
+    <t>Projecten opgestart en logboek bijgewerkt met een nieuwe tab voor week 49</t>
+  </si>
+  <si>
+    <t>StartScene bijgewerkt, PlayScene aangemaakt, HelpScene aangemaakt en GameOverScene aangemaakt en overal de kleur veranderd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In alle Scene classen en in de PyramidPanic class in de Update/Draw method  GameTime  gameTime meegegeven. </t>
+  </si>
+  <si>
+    <t>Nieuwe Interface aangemaakt en iets aangepast.</t>
+  </si>
+  <si>
+    <t>Interface aangepast en de goede state laten afspelen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getter en Setter gemaakt voor Field IState en getter voor StartScene. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region aangemaakt voor properties. </t>
+  </si>
+  <si>
+    <t>De Scenes geloopt zodat ze achter elkaar afspelen door de Right-knop in te drukken.</t>
+  </si>
+  <si>
+    <t>Nieuwe class/map Input gemaakt.</t>
+  </si>
+  <si>
+    <t>Keys aangepast voor het bewegen van de Scenes.</t>
+  </si>
+  <si>
+    <t>Input aangepast. Keys aangemaakt voor Scenes bewegen.</t>
+  </si>
+  <si>
+    <t>Edgedetector aangemaakt en ingesteld voor een Scene naar links/rechts.</t>
+  </si>
+  <si>
+    <t>Zo gemaakt dat de Scenes kunnen veranderen door de muis te klikken.</t>
+  </si>
+  <si>
+    <t>LevelDetector gemaakt voor de muis.</t>
+  </si>
+  <si>
+    <t>Imput class angepast. Er is nu een Rectangle dit de muis volgt.</t>
+  </si>
+  <si>
+    <t>Lokale commits gemaakt.</t>
   </si>
 </sst>
 </file>
@@ -475,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,10 +841,429 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41610</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SUM(D7-C7)</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G26" si="0">SUM(D8-C8)</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3194444444444398E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222654E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2">
+        <f>SUM(G7:G26)</f>
+        <v>0.18680555555555556</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,13 +1317,22 @@
         <v>0.18819444444444444</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2">
+        <f>SUM('Weeknr 49'!G27)</f>
+        <v>0.18680555555555556</v>
+      </c>
+    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <f>SUM(B7)</f>
-        <v>0.18819444444444444</v>
+        <f>SUM(B7)+(B8)</f>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek PyramidPanic.xlsx
+++ b/Logboek PyramidPanic.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Weeknr 48" sheetId="1" r:id="rId1"/>
     <sheet name="Weeknr 49" sheetId="3" r:id="rId2"/>
-    <sheet name="Totaal uren" sheetId="2" r:id="rId3"/>
+    <sheet name="Weeknr 50" sheetId="4" r:id="rId3"/>
+    <sheet name="Totaal uren" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>Logboek</t>
   </si>
@@ -151,6 +152,24 @@
   </si>
   <si>
     <t>Lokale commits gemaakt.</t>
+  </si>
+  <si>
+    <t>Logboek nieuwe tab weeknr 50 gemaakt en ingevuld.</t>
+  </si>
+  <si>
+    <t>Nieuwe map  HelperSclass gemaakt en daarin een class  gemaakt genaamt: Image.</t>
+  </si>
+  <si>
+    <t>In de StartScene class roept de constructor de initialize method aan den deze roept op zijn beurt de LoadContent method aan.</t>
+  </si>
+  <si>
+    <t>De Image constructor krijgt argumenten mee: PyramidPanic game, String pathNameAsset, Vector2 position</t>
+  </si>
+  <si>
+    <t>In de constructor van de Image class een instantie gemaakt van de texture en de rectangle.</t>
+  </si>
+  <si>
+    <t>Background geDrawd om een achtergrond te krijgen.</t>
   </si>
 </sst>
 </file>
@@ -843,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,10 +1279,359 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="71.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41617</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SUM(D7-C7)</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G26" si="0">SUM(D8-C8)</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2">
+        <f>SUM(G7:G26)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,12 +1695,21 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2">
+        <f>SUM('Weeknr 50'!G27)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2">
-        <f>SUM(B7)+(B8)</f>
-        <v>0.375</v>
+      <c r="B10" s="2">
+        <f>SUM(B7)+(B8) + (B9)</f>
+        <v>0.4375</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek PyramidPanic.xlsx
+++ b/Logboek PyramidPanic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weeknr 48" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>Logboek</t>
   </si>
@@ -169,7 +169,13 @@
     <t>In de constructor van de Image class een instantie gemaakt van de texture en de rectangle.</t>
   </si>
   <si>
-    <t>Background geDrawd om een achtergrond te krijgen.</t>
+    <t>Background geDrawd om een achtergrond te krijgen en alles gecommit en gepushed</t>
+  </si>
+  <si>
+    <t>Nieuwe class Menu aangemaakt en bijgewerkt.</t>
+  </si>
+  <si>
+    <t>Menu aangepast zodat die de knoppen drawd op het startscherm.</t>
   </si>
 </sst>
 </file>
@@ -1281,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,25 +1468,39 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="E13">
         <v>7</v>
       </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3888888888888895E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.46875</v>
+      </c>
       <c r="E14">
         <v>8</v>
       </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7361111111111105E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1617,7 +1637,7 @@
       </c>
       <c r="G27" s="2">
         <f>SUM(G7:G26)</f>
-        <v>6.25E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1630,7 +1650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1700,7 +1720,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM('Weeknr 50'!G27)</f>
-        <v>6.25E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1709,7 +1729,7 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B7)+(B8) + (B9)</f>
-        <v>0.4375</v>
+        <v>0.46875</v>
       </c>
     </row>
   </sheetData>

--- a/Logboek PyramidPanic.xlsx
+++ b/Logboek PyramidPanic.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Logboek</t>
   </si>
@@ -176,6 +176,18 @@
   </si>
   <si>
     <t>Menu aangepast zodat die de knoppen drawd op het startscherm.</t>
+  </si>
+  <si>
+    <t>Alles bijgewerkt gecommit en gepushed.</t>
+  </si>
+  <si>
+    <t>Buttons Switch case gemaakt, de kleur van de knoppen aangepast naar goud. Images en enum gemaakt voor de states.</t>
+  </si>
+  <si>
+    <t>De enum laten updaten.</t>
+  </si>
+  <si>
+    <t>Als je het rechterpijltje indrukt ga je in het startscherm naar de volgende knop. Alles om van Scene te veranderen hebben we weggehaald.</t>
   </si>
 </sst>
 </file>
@@ -553,7 +565,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="A1:XFD1048576"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +881,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="A1:XFD1048576"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1300,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,47 +1516,75 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.47013888888888888</v>
+      </c>
       <c r="E15">
         <v>9</v>
       </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.388888888888884E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E16">
         <v>10</v>
       </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0277777777777746E-2</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="E17">
         <v>11</v>
       </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666741E-2</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.53125</v>
+      </c>
       <c r="E18">
         <v>12</v>
       </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
@@ -1637,7 +1677,7 @@
       </c>
       <c r="G27" s="2">
         <f>SUM(G7:G26)</f>
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1760,7 @@
       </c>
       <c r="B9" s="2">
         <f>SUM('Weeknr 50'!G27)</f>
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1729,7 +1769,7 @@
       </c>
       <c r="B10" s="2">
         <f>SUM(B7)+(B8) + (B9)</f>
-        <v>0.46875</v>
+        <v>0.53125</v>
       </c>
     </row>
   </sheetData>
